--- a/report/tmp.xlsx
+++ b/report/tmp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UChicago-2021-Winter\computational-content-analysis\personal-finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UChicago-2021-Winter\computational-content-analysis\personal-finance\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B870841-56FA-4AC1-99DB-6643B9239E85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566CCB8F-D12F-4722-A75F-5DEED8E69E48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5200" yWindow="930" windowWidth="9540" windowHeight="7360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top words" sheetId="1" r:id="rId1"/>
@@ -5121,7 +5121,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/report/tmp.xlsx
+++ b/report/tmp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UChicago-2021-Winter\computational-content-analysis\personal-finance\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566CCB8F-D12F-4722-A75F-5DEED8E69E48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F1F7C-C1BF-463C-80B1-6C8B186F006C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="930" windowWidth="9540" windowHeight="7360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top words" sheetId="1" r:id="rId1"/>
@@ -220,9 +220,6 @@
     <t>(m, go)</t>
   </si>
   <si>
-    <t>(year, old)</t>
-  </si>
-  <si>
     <t>(pay, $)</t>
   </si>
   <si>
@@ -844,6 +841,10 @@
   </si>
   <si>
     <t>negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(year, old)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,6 +852,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -929,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -970,6 +974,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1872,31 +1879,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955866BE-BF1A-4AF4-AB94-E40142FC2FA0}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.08203125" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1906,23 +1918,23 @@
       <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="16">
         <v>2643.2619399999999</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="16">
         <v>18.424612</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="1">
+        <v>67</v>
+      </c>
+      <c r="G2" s="16">
         <v>6.1622599999999998</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2">
         <v>6.1622599999999998</v>
@@ -1932,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1942,26 +1954,26 @@
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="17">
         <v>1549.9533180000001</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="17">
         <v>12.524633</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="2">
+        <v>68</v>
+      </c>
+      <c r="G3" s="17">
         <v>5.8309420000000003</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3">
         <v>5.8309420000000003</v>
@@ -1983,26 +1995,26 @@
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="17">
         <v>1459.923489</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="17">
         <v>12.264677000000001</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="2">
+        <v>69</v>
+      </c>
+      <c r="G4" s="17">
         <v>5.4772230000000004</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4">
         <v>5.4772230000000004</v>
@@ -2011,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N4" s="8">
         <v>0.18351300000000001</v>
@@ -2024,26 +2036,26 @@
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="17">
         <v>867.18174099999999</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="17">
         <v>10.5862</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="2">
+        <v>70</v>
+      </c>
+      <c r="G5" s="17">
         <v>5.4772230000000004</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5">
         <v>5.4772230000000004</v>
@@ -2052,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N5" s="8">
         <v>9.6106999999999998E-2</v>
@@ -2065,26 +2077,26 @@
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="17">
         <v>819.73251600000003</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="17">
         <v>10.429105</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="2">
+        <v>71</v>
+      </c>
+      <c r="G6" s="17">
         <v>5.0990180000000001</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6">
         <v>5.0990180000000001</v>
@@ -2093,7 +2105,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N6" s="8">
         <v>9.4700000000000006E-2</v>
@@ -2106,26 +2118,26 @@
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="17">
         <v>772.06887500000005</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="17">
         <v>9.5763610000000003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="2">
+        <v>72</v>
+      </c>
+      <c r="G7" s="17">
         <v>4.7958280000000002</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J7">
         <v>4.7958280000000002</v>
@@ -2134,7 +2146,7 @@
         <v>4</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N7" s="8">
         <v>8.9033000000000001E-2</v>
@@ -2147,26 +2159,26 @@
       <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="17">
         <v>678.79737899999998</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="17">
         <v>9.3890189999999993</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="2">
+        <v>73</v>
+      </c>
+      <c r="G8" s="17">
         <v>4.679945</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J8">
         <v>4.679945</v>
@@ -2175,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N8" s="8">
         <v>0.107934</v>
@@ -2188,26 +2200,26 @@
       <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="17">
         <v>640.50700099999995</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="17">
         <v>9.3192350000000008</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="2">
+        <v>74</v>
+      </c>
+      <c r="G9" s="17">
         <v>4.3561310000000004</v>
       </c>
       <c r="H9">
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9">
         <v>4.3561310000000004</v>
@@ -2216,7 +2228,7 @@
         <v>6</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N9" s="8">
         <v>6.0561999999999998E-2</v>
@@ -2229,26 +2241,26 @@
       <c r="B10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="17">
         <v>628.442004</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="17">
         <v>9.2887649999999997</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="2">
+        <v>86</v>
+      </c>
+      <c r="G10" s="17">
         <v>4.2455249999999998</v>
       </c>
       <c r="H10">
         <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10">
         <v>4.2455249999999998</v>
@@ -2257,39 +2269,39 @@
         <v>7</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N10" s="8">
         <v>6.0865000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="18">
         <v>571.53629000000001</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="18">
         <v>9.19252</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="18">
         <v>4.1230739999999999</v>
       </c>
       <c r="H11">
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11">
         <v>4.1230739999999999</v>
@@ -2298,7 +2310,7 @@
         <v>8</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N11" s="8">
         <v>0.11193500000000001</v>
@@ -2311,26 +2323,26 @@
       <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="17">
         <v>563.03078000000005</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="17">
         <v>8.7073250000000009</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="2">
+        <v>76</v>
+      </c>
+      <c r="G12" s="17">
         <v>4.1188099999999999</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J12">
         <v>4.1188099999999999</v>
@@ -2339,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N12" s="8">
         <v>9.7493999999999997E-2</v>
@@ -2352,26 +2364,26 @@
       <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="17">
         <v>503.77082999999999</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="17">
         <v>8.584085</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="2">
+        <v>77</v>
+      </c>
+      <c r="G13" s="17">
         <v>3.8729369999999999</v>
       </c>
       <c r="H13">
         <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13">
         <v>3.8729369999999999</v>
@@ -2384,26 +2396,26 @@
       <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="17">
         <v>503.418789</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="17">
         <v>8.4379600000000003</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="2">
+        <v>78</v>
+      </c>
+      <c r="G14" s="17">
         <v>3.869329</v>
       </c>
       <c r="H14">
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14">
         <v>3.869329</v>
@@ -2416,26 +2428,26 @@
       <c r="B15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="17">
         <v>496.18115299999999</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="2">
+        <v>263</v>
+      </c>
+      <c r="E15" s="17">
         <v>8.2213849999999997</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="2">
+        <v>79</v>
+      </c>
+      <c r="G15" s="17">
         <v>3.8691650000000002</v>
       </c>
       <c r="H15">
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15">
         <v>3.8691650000000002</v>
@@ -2448,26 +2460,26 @@
       <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="17">
         <v>495.73068000000001</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="2">
+        <v>62</v>
+      </c>
+      <c r="E16" s="17">
         <v>7.9545110000000001</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="2">
+        <v>80</v>
+      </c>
+      <c r="G16" s="17">
         <v>3.7416209999999999</v>
       </c>
       <c r="H16">
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J16">
         <v>3.7416209999999999</v>
@@ -2480,26 +2492,26 @@
       <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="17">
         <v>489.98542099999997</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="17">
         <v>7.8234079999999997</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="2">
+        <v>81</v>
+      </c>
+      <c r="G17" s="17">
         <v>3.6055410000000001</v>
       </c>
       <c r="H17">
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J17">
         <v>3.6055410000000001</v>
@@ -2512,26 +2524,26 @@
       <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="17">
         <v>485.10640000000001</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="17">
         <v>7.7504020000000002</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="2">
+        <v>82</v>
+      </c>
+      <c r="G18" s="17">
         <v>3.5857600000000001</v>
       </c>
       <c r="H18">
         <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18">
         <v>3.5857600000000001</v>
@@ -2544,26 +2556,26 @@
       <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="17">
         <v>453.31975699999998</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="2">
+        <v>63</v>
+      </c>
+      <c r="E19" s="17">
         <v>7.7477919999999996</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="2">
+        <v>83</v>
+      </c>
+      <c r="G19" s="17">
         <v>3.4639899999999999</v>
       </c>
       <c r="H19">
         <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19">
         <v>3.4639899999999999</v>
@@ -2576,26 +2588,26 @@
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="17">
         <v>448.84813500000001</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="2">
+        <v>64</v>
+      </c>
+      <c r="E20" s="17">
         <v>7.5235190000000003</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="2">
+        <v>84</v>
+      </c>
+      <c r="G20" s="17">
         <v>3.4622959999999998</v>
       </c>
       <c r="H20">
         <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20">
         <v>3.4622959999999998</v>
@@ -2608,26 +2620,26 @@
       <c r="B21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="18">
         <v>446.65061700000001</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="18">
         <v>7.310689</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="3">
+        <v>85</v>
+      </c>
+      <c r="G21" s="18">
         <v>3.4609399999999999</v>
       </c>
       <c r="H21">
         <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21">
         <v>3.4609399999999999</v>
@@ -2659,99 +2671,99 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M3" s="4">
         <v>0.504</v>
@@ -2762,34 +2774,34 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M4" s="5">
         <v>0.42799999999999999</v>
@@ -2800,34 +2812,34 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M5" s="5">
         <v>0.46300000000000002</v>
@@ -2838,34 +2850,34 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M6" s="6">
         <v>0.51300000000000001</v>
@@ -2876,19 +2888,19 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -2897,27 +2909,27 @@
         <v>2020</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2926,27 +2938,27 @@
         <v>2019</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2955,68 +2967,68 @@
         <v>2018</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3046,64 +3058,64 @@
   <sheetData>
     <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -3203,7 +3215,7 @@
         <v>6</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>6</v>
@@ -3221,10 +3233,10 @@
         <v>8</v>
       </c>
       <c r="S3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>6</v>
@@ -3268,10 +3280,10 @@
         <v>10</v>
       </c>
       <c r="N4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>16</v>
@@ -3289,7 +3301,7 @@
         <v>3</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -3333,7 +3345,7 @@
         <v>7</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>3</v>
@@ -3345,7 +3357,7 @@
         <v>6</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>4</v>
@@ -3457,16 +3469,16 @@
         <v>18</v>
       </c>
       <c r="O7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>5</v>
@@ -3510,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>20</v>
@@ -3522,19 +3534,19 @@
         <v>5</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>8</v>
@@ -3575,7 +3587,7 @@
         <v>18</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>9</v>
@@ -3584,13 +3596,13 @@
         <v>3</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>7</v>
@@ -3646,19 +3658,19 @@
         <v>14</v>
       </c>
       <c r="P10" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="R10" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>5</v>
@@ -3699,31 +3711,31 @@
         <v>3</v>
       </c>
       <c r="M11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="R11" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3885,22 +3897,22 @@
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="4" t="s">
@@ -3981,22 +3993,22 @@
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="5" t="s">
@@ -4019,22 +4031,22 @@
       </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4058,41 +4070,41 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5" t="s">
@@ -4250,22 +4262,22 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5" t="s">
@@ -4288,22 +4300,22 @@
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5" t="s">
@@ -4316,33 +4328,33 @@
         <v>6</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
@@ -4358,10 +4370,10 @@
         <v>16</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5" t="s">
@@ -4384,32 +4396,32 @@
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="Z7" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="X7" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="AA7" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF7" s="5" t="s">
         <v>6</v>
@@ -4435,29 +4447,29 @@
         <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5" t="s">
@@ -4480,41 +4492,41 @@
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y8" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="Z8" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="Y8" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="AA8" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4538,16 +4550,16 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>12</v>
@@ -4557,51 +4569,51 @@
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="S9" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="T9" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="U9" s="5"/>
       <c r="V9" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA9" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AD9" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF9" s="5" t="s">
         <v>2</v>
@@ -4615,16 +4627,16 @@
     </row>
     <row r="10" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>32</v>
@@ -4646,67 +4658,67 @@
         <v>12</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH10" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4730,79 +4742,79 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="T11" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y11" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="W11" s="6" t="s">
+      <c r="Z11" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="X11" s="6" t="s">
+      <c r="AA11" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA11" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AD11" s="6" t="s">
         <v>2</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF11" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AH11" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4826,288 +4838,288 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>214</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -5120,8 +5132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879C3942-AB8E-4A15-91DD-154CF87003D8}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5137,32 +5149,32 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/report/tmp.xlsx
+++ b/report/tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UChicago-2021-Winter\computational-content-analysis\personal-finance\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F1F7C-C1BF-463C-80B1-6C8B186F006C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59888C5E-5B03-4484-AE98-89DB3BF21D53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="264">
   <si>
     <t>word</t>
   </si>
@@ -1880,14 +1880,14 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.08203125" customWidth="1"/>
-    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2087,10 +2087,10 @@
         <v>10.429105</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" s="17">
-        <v>5.0990180000000001</v>
+        <v>4.7958280000000002</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -2128,10 +2128,10 @@
         <v>9.5763610000000003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G7" s="17">
-        <v>4.7958280000000002</v>
+        <v>4.679945</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -2169,10 +2169,10 @@
         <v>9.3890189999999993</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" s="17">
-        <v>4.679945</v>
+        <v>4.3561310000000004</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -2210,10 +2210,10 @@
         <v>9.3192350000000008</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G9" s="17">
-        <v>4.3561310000000004</v>
+        <v>4.2455249999999998</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -2251,10 +2251,10 @@
         <v>9.2887649999999997</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G10" s="17">
-        <v>4.2455249999999998</v>
+        <v>4.1230739999999999</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -2292,10 +2292,10 @@
         <v>9.19252</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" s="18">
-        <v>4.1230739999999999</v>
+        <v>4.1188099999999999</v>
       </c>
       <c r="H11">
         <v>9</v>
@@ -2331,12 +2331,6 @@
       </c>
       <c r="E12" s="17">
         <v>8.7073250000000009</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="17">
-        <v>4.1188099999999999</v>
       </c>
       <c r="H12">
         <v>10</v>
